--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,28 +84,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EQUIP_ZS_M_0_WEAPON_10002</t>
+  </si>
+  <si>
+    <t>饮血刀</t>
+  </si>
+  <si>
+    <t>皇者刀</t>
+  </si>
+  <si>
+    <t>Dao/Dao_001</t>
+  </si>
+  <si>
+    <t>Prefabs/Misc/Drop/Drop_Weapon</t>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_ARMOR_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_ARMOR_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_BOOT_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_BOOT_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EQUIP_ZS_M_0_WEAPON_10001</t>
-  </si>
-  <si>
-    <t>EQUIP_ZS_M_0_WEAPON_10002</t>
-  </si>
-  <si>
-    <t>饮血刀</t>
-  </si>
-  <si>
-    <t>皇者刀</t>
-  </si>
-  <si>
-    <t>Equip_100</t>
-  </si>
-  <si>
-    <t>Equip_101</t>
-  </si>
-  <si>
-    <t>Dao/Dao_001</t>
-  </si>
-  <si>
-    <t>Prefabs/Misc/Drop/Drop_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Weapon_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Weapon_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_102</t>
+  </si>
+  <si>
+    <t>Equip_Boot_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boot_102</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -314,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,7 +598,8 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
@@ -607,10 +656,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -623,17 +672,17 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -650,10 +699,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -666,29 +715,206 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +167,13 @@
   <si>
     <t>皮革甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
   </si>
 </sst>
 </file>
@@ -182,20 +197,37 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -204,19 +236,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -574,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,9 +668,10 @@
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +717,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -696,8 +763,11 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -739,8 +809,11 @@
       <c r="O3">
         <v>0</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -782,8 +855,11 @@
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -825,8 +901,11 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -868,8 +947,11 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -910,6 +992,9 @@
       </c>
       <c r="O7">
         <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -107,73 +107,73 @@
     <t>Prefabs/Misc/Drop/Drop_Weapon</t>
   </si>
   <si>
+    <t>EQUIP_ZS_M_0_ARMOR_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_BOOT_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_WEAPON_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Weapon_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Weapon_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Armor_102</t>
+  </si>
+  <si>
+    <t>Equip_Boot_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boot_102</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
+  </si>
+  <si>
     <t>EQUIP_ZS_M_0_ARMOR_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EQUIP_ZS_M_0_ARMOR_10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EQUIP_ZS_M_0_BOOT_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP_ZS_M_0_BOOT_10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>草鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQUIP_ZS_M_0_WEAPON_10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Weapon_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Weapon_102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Armor_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Armor_102</t>
-  </si>
-  <si>
-    <t>Equip_Boot_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_Boot_102</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮革甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -718,12 +718,12 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -810,12 +810,12 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -831,11 +831,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -856,12 +856,12 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -877,11 +877,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -902,12 +902,12 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -923,11 +923,11 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -948,12 +948,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -969,11 +969,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -994,12 +994,12 @@
         <v>0</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -165,15 +165,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI/SteampunkUI/resource/icons/img_equip.png</t>
-  </si>
-  <si>
     <t>EQUIP_ZS_M_0_ARMOR_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EQUIP_ZS_M_0_BOOT_10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/SteampunkUI/resource/icons/img_equip</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,7 +668,7 @@
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -810,12 +810,12 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -902,12 +902,12 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\project\NFrame_CPP\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,10 +156,6 @@
   </si>
   <si>
     <t>Equip_Boot_102</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皮革甲</t>
@@ -574,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -910,11 +911,6 @@
       </c>
       <c r="O7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G19" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -227,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +241,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +324,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -265,21 +349,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,28 +378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -323,32 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,36 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -419,25 +428,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,167 +608,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,11 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,8 +765,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,30 +791,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +812,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -726,171 +834,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,8 +1077,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -958,10 +1086,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1238,7 +1363,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1262,420 +1387,420 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:19">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:19">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:19">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:19">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:19">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:19">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B8">
@@ -1699,16 +1824,16 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q8">
@@ -1717,12 +1842,12 @@
       <c r="R8">
         <v>0</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B9">
@@ -1746,16 +1871,16 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q9">
@@ -1764,12 +1889,12 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B10">
@@ -1793,16 +1918,16 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q10">
@@ -1811,12 +1936,12 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B11">
@@ -1840,16 +1965,16 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q11">
@@ -1858,12 +1983,12 @@
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B12">
@@ -1887,16 +2012,16 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q12">
@@ -1905,12 +2030,12 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13">
@@ -1934,16 +2059,16 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Q13">
@@ -1952,7 +2077,7 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="13" t="s">
         <v>49</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>NFSexType</t>
@@ -227,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -251,7 +254,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,6 +288,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -279,48 +349,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,16 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,39 +387,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,13 +430,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,176 +614,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -661,6 +663,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -694,6 +709,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -728,6 +756,15 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,9 +801,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,8 +813,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +834,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -809,177 +857,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,37 +1017,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1108,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1086,7 +1117,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1360,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,125 +1417,125 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:19">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:19">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:19">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="b">
@@ -1564,7 +1594,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:19">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="8" t="b">
@@ -1623,7 +1653,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:19">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="8" t="b">
@@ -1682,7 +1712,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="8" t="b">
@@ -1740,115 +1770,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:19">
+    <row r="7" s="3" customFormat="1" spans="1:19">
       <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="N8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="O8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="Q8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="R8" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="11" t="s">
-        <v>50</v>
+      <c r="A9" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1866,23 +1908,23 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="L9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="P9" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1890,12 +1932,12 @@
         <v>0</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
+      <c r="A10" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1910,39 +1952,39 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="11" t="s">
+      <c r="L10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="P10" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="13" t="s">
-        <v>49</v>
+      <c r="S10" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="11" t="s">
-        <v>56</v>
+      <c r="A11" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1960,36 +2002,36 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="11" t="s">
+      <c r="L11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="P11" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11" s="13" t="s">
-        <v>49</v>
+      <c r="S11" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="11" t="s">
-        <v>59</v>
+      <c r="A12" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2004,39 +2046,39 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="L12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="P12" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" s="13" t="s">
-        <v>49</v>
+      <c r="S12" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="11" t="s">
-        <v>62</v>
+      <c r="A13" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2054,34 +2096,87 @@
         <v>12</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="11" t="s">
+      <c r="N14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="P14" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:S7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,20 +17,28 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Equip" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -228,18 +241,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +254,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -258,152 +265,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,198 +287,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -744,7 +421,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,258 +429,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,61 +489,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1122,12 +509,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1388,35 +780,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1"/>
-    <col min="16" max="16" width="47.875" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:19">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:19">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:19">
+    <row r="8" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1888,7 +1281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>45</v>
       </c>
@@ -1935,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -1982,7 +1375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>54</v>
       </c>
@@ -2029,7 +1422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
@@ -2076,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>60</v>
       </c>
@@ -2123,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>63</v>
       </c>
@@ -2177,7 +1570,6 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Equip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -236,17 +236,21 @@
   </si>
   <si>
     <t>Equip_Boot_102</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,8 +258,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +268,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -490,7 +500,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -518,6 +528,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,35 +794,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="47.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="16" max="16" width="47.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -868,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -927,7 +940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -986,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1222,142 +1235,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>48</v>
@@ -1371,13 +1396,13 @@
       <c r="R10">
         <v>0</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1392,19 +1417,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>48</v>
@@ -1422,9 +1447,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1442,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>48</v>
@@ -1469,9 +1494,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1486,19 +1511,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>48</v>
@@ -1516,9 +1541,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1536,16 +1561,16 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>48</v>
@@ -1563,10 +1588,58 @@
         <v>50</v>
       </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:S7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:S8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
